--- a/userfiles/company/Payslip-Management-Template.xlsx
+++ b/userfiles/company/Payslip-Management-Template.xlsx
@@ -1,43 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\erp-dev\userfiles\company\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Employee Payslip list" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee Payslip list" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+  <si>
+    <t>Comprehensive Excel Sheet Import Tool for Streamlined Employee Payslip Data Integration</t>
+  </si>
   <si>
     <t>Staff Id</t>
   </si>
   <si>
-    <t xml:space="preserve">Year </t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Staff Name</t>
   </si>
   <si>
+    <t>Month (Number)</t>
+  </si>
+  <si>
+    <t>Year (Number)</t>
+  </si>
+  <si>
+    <t>Date Of Payment (d-m-Y)</t>
+  </si>
+  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -56,7 +53,10 @@
     <t xml:space="preserve">Socso </t>
   </si>
   <si>
-    <t xml:space="preserve">PCB </t>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>EIS</t>
   </si>
   <si>
     <t>Allowance</t>
@@ -80,7 +80,7 @@
     <t>Total Deductions</t>
   </si>
   <si>
-    <t>Date Of Payment (d-m-Y)</t>
+    <t>Net Pay</t>
   </si>
   <si>
     <t>Bank Name</t>
@@ -89,37 +89,256 @@
     <t>Bank Account Number</t>
   </si>
   <si>
-    <t>Net Pay</t>
-  </si>
-  <si>
-    <t>Comprehensive Excel Sheet Import Tool for Streamlined Employee Payslip Data Integration</t>
+    <t>hjghjg</t>
+  </si>
+  <si>
+    <t>General Workers</t>
+  </si>
+  <si>
+    <t>hjg</t>
+  </si>
+  <si>
+    <t>jhgjh</t>
+  </si>
+  <si>
+    <t>William Hong</t>
+  </si>
+  <si>
+    <t>Muhammad Taufiq Bin Md Yasin</t>
+  </si>
+  <si>
+    <t>Sanderasegaran A/L Kumaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shah Imran bin Shaharudin </t>
+  </si>
+  <si>
+    <t>Rakesh Kumar</t>
+  </si>
+  <si>
+    <t>Velayuthan A/L Bala Krishnan</t>
+  </si>
+  <si>
+    <t>Jeyaprakash A/L Jeyakumar</t>
+  </si>
+  <si>
+    <t>Kumuthan A/L Govindasamy</t>
+  </si>
+  <si>
+    <t>Karthik A/L Subramaniam</t>
+  </si>
+  <si>
+    <t>Kannan a/l Bijekumar</t>
+  </si>
+  <si>
+    <t>Kailash</t>
+  </si>
+  <si>
+    <t>Hethiswara Retnam A/L Kanagaretnam</t>
+  </si>
+  <si>
+    <t>Flavian Biswas</t>
+  </si>
+  <si>
+    <t>Muhammad Fathi Bin Jamaludin</t>
+  </si>
+  <si>
+    <t>kjkljl</t>
+  </si>
+  <si>
+    <t>Dzul Helmie Bin Ahmd Damanhuri</t>
+  </si>
+  <si>
+    <t>Alvin A/L Adaikalasamy</t>
+  </si>
+  <si>
+    <t>Siva</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>siva</t>
+  </si>
+  <si>
+    <t>1/1/2024</t>
+  </si>
+  <si>
+    <t>fffff</t>
+  </si>
+  <si>
+    <t>Inventory Manager</t>
+  </si>
+  <si>
+    <t>hjghjghjg</t>
+  </si>
+  <si>
+    <t>hgjhgjhg</t>
+  </si>
+  <si>
+    <t>hghjghjg</t>
+  </si>
+  <si>
+    <t>jhjhkjh</t>
+  </si>
+  <si>
+    <t>hghjg</t>
+  </si>
+  <si>
+    <t>sp bank</t>
+  </si>
+  <si>
+    <t>sp741741741</t>
+  </si>
+  <si>
+    <t>HELLY</t>
+  </si>
+  <si>
+    <t>soba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC </t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>krish mathavan</t>
+  </si>
+  <si>
+    <t>Kamu</t>
+  </si>
+  <si>
+    <t>demoemployee</t>
+  </si>
+  <si>
+    <t>REENA</t>
+  </si>
+  <si>
+    <t>foreignwrker3</t>
+  </si>
+  <si>
+    <t>foreignworker2</t>
+  </si>
+  <si>
+    <t>domestic3</t>
+  </si>
+  <si>
+    <t>foreignuser</t>
+  </si>
+  <si>
+    <t>domesticuser</t>
+  </si>
+  <si>
+    <t>vivevk</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
+    <t>akajith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance </t>
+  </si>
+  <si>
+    <t>demosample</t>
+  </si>
+  <si>
+    <t>udfgfgjfj</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>sureshkumar</t>
+  </si>
+  <si>
+    <t>Schedule Test 3</t>
+  </si>
+  <si>
+    <t>Schedule Test 2.1</t>
+  </si>
+  <si>
+    <t>Test Schedular 2</t>
+  </si>
+  <si>
+    <t>Testing Schedular</t>
+  </si>
+  <si>
+    <t>Alvin</t>
+  </si>
+  <si>
+    <t>jenifer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">executive </t>
+  </si>
+  <si>
+    <t>krish81</t>
+  </si>
+  <si>
+    <t>AjmalSoft</t>
+  </si>
+  <si>
+    <t>Shafeek Ajmal</t>
+  </si>
+  <si>
+    <t>fsdfdsf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -132,14 +351,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF404040"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -155,27 +374,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="5">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -222,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -257,7 +469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -301,161 +513,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="J1">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="25.7109375" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+    <row r="1" spans="1:23" customHeight="1" ht="21" s="1" customFormat="1">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -475,80 +712,2028 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="I4">
+        <v>880</v>
+      </c>
+      <c r="J4">
+        <v>1040</v>
+      </c>
+      <c r="K4">
+        <v>80.0</v>
+      </c>
+      <c r="L4">
+        <v>20.0</v>
+      </c>
+      <c r="M4">
+        <v>20.0</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8">
+        <v>0.0</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9">
+        <v>0.0</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10">
+        <v>0.0</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11">
+        <v>0.0</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13">
+        <v>0.0</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14">
+        <v>0.0</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15">
+        <v>0.0</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16">
+        <v>0.0</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17">
+        <v>0.0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>1114</v>
+      </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18">
+        <v>0.0</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19">
+        <v>0.0</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20">
+        <v>60000.0</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21">
+        <v>10000.0</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22">
+        <v>52000.0</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23">
+        <v>0.0</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24">
+        <v>0.0</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25">
+        <v>0.0</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26">
+        <v>0.0</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27">
+        <v>0.0</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28">
+        <v>0.0</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29">
+        <v>0.0</v>
+      </c>
+      <c r="I29">
+        <v>540</v>
+      </c>
+      <c r="J29">
+        <v>720</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>456415</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29" t="s">
+        <v>57</v>
+      </c>
+      <c r="W29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30">
+        <v>0.0</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30">
+        <v>123456789</v>
+      </c>
+      <c r="W30">
+        <v>2345678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31">
+        <v>0.0</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32">
+        <v>2500.0</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33">
+        <v>0.0</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34">
+        <v>0.0</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35">
+        <v>0.0</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36">
+        <v>0.0</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37">
+        <v>0.0</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38">
+        <v>0.0</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39">
+        <v>0.0</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40">
+        <v>0.0</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41">
+        <v>0.0</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>0.0</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43">
+        <v>0.0</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44">
+        <v>0.0</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45">
+        <v>2000.0</v>
+      </c>
+      <c r="I45">
+        <v>550</v>
+      </c>
+      <c r="J45">
+        <v>650</v>
+      </c>
+      <c r="K45">
+        <v>25.5</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45" t="s">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46">
+        <v>0.0</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47">
+        <v>0.0</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48">
+        <v>0.0</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49">
+        <v>0.0</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50">
+        <v>0.0</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51">
+        <v>0.0</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52">
+        <v>0.0</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53">
+        <v>0.0</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54">
+        <v>0.0</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55">
+        <v>2000.0</v>
+      </c>
+      <c r="I55">
+        <v>330</v>
+      </c>
+      <c r="J55">
+        <v>390</v>
+      </c>
+      <c r="K55">
+        <v>15</v>
+      </c>
+      <c r="L55">
+        <v>0.0</v>
+      </c>
+      <c r="M55">
+        <v>5.9</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56">
+        <v>1000.0</v>
+      </c>
+      <c r="I56">
+        <v>660</v>
+      </c>
+      <c r="J56">
+        <v>720</v>
+      </c>
+      <c r="K56">
+        <v>30</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>12</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57">
+        <v>0.0</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>0.0</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59">
+        <v>0.0</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60">
+        <v>1000.0</v>
+      </c>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+  <mergeCells>
+    <mergeCell ref="C1:W1"/>
   </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>